--- a/1)表の練習/1)表の練習.xlsx
+++ b/1)表の練習/1)表の練習.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\1)表の練習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Downloads\JNPC2302-main\JNPC2302-main\1)表の練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74D48B-4B1E-495D-982F-90B87EF0287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CA4526-597F-46C7-BAB9-46E90E7FD466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19050" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -161,62 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>E7セルに入れた式は、「=E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7」</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こうなればOKです</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,19 +241,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E6からH9まで範囲指定して、「=E5:H5&amp;D6:D9」と入れて、Ctrl+Shift+Enter</t>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -891,25 +822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E7セルに入れた式は、「=E5&amp;D7」。それを縦横に増やしていくと.……</t>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動で数式を下にコピーしていく方法、覚えていますか？</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -946,6 +858,94 @@
       <t>ヨコ</t>
     </rPh>
     <rPh sb="49" eb="50">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7からH10まで範囲指定して、「=E6:H6&amp;D7:D10」と入れて、Ctrl+Shift+Enter</t>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>E7セルに入れた式は、「=E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7」</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7セルに入れた式は、「=E6&amp;D7」。それを縦横に増やしていくと.……</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
       <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1357,13 +1357,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
@@ -1435,7 +1437,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1477,7 +1479,7 @@
         <v>あそこの</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1504,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E43C9C-94D0-4E53-8191-1A728B15394B}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1517,63 +1519,66 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="str">
-        <f>E$5&amp;$D6</f>
+      <c r="E7" t="str">
+        <f>E$6&amp;$D7</f>
         <v>この</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001009-DD9F-472D-8F76-BDDD397707D5}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1593,133 +1598,133 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="str">
-        <f>E$5&amp;$D6</f>
+      <c r="E7" t="str">
+        <f>E$6&amp;$D7</f>
         <v>この</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" ref="F6:H9" si="0">F$5&amp;$D6</f>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:H10" si="0">F$6&amp;$D7</f>
         <v>その</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>あの</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>どの</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E9" si="1">E$5&amp;$D7</f>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E10" si="1">E$6&amp;$D8</f>
         <v>こんな</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>そんな</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>あんな</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>どんな</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>こちら</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>そちら</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>あちら</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>どちら</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>これ</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>それ</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>あれ</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>どれ</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>52</v>
+    <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8860DAE2-4843-43CB-9A69-3BE02061CAA1}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1739,138 +1744,138 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="str">
-        <f>E$5&amp;$D6</f>
+      <c r="E7" t="str">
+        <f>E$6&amp;$D7</f>
         <v>この</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" ref="F6:H9" si="0">F$5&amp;$D6</f>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:H10" si="0">F$6&amp;$D7</f>
         <v>その</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>あの</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>どの</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E9" si="1">E$5&amp;$D7</f>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E10" si="1">E$6&amp;$D8</f>
         <v>こんな</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>そんな</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>あんな</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>どんな</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>こちら</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>そちら</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>あちら</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>どちら</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>これ</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>それ</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>あれ</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>どれ</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
-      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1887,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF80CA95-E0A8-4F5B-BC9E-A051918B2262}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1894,163 +1899,163 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2062,133 +2067,136 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E4AA8D-9D1A-4B20-B19B-10A17EBAFF5B}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="str" cm="1">
-        <f t="array" ref="E6:H9">(E5:H5&amp;D6:D9)</f>
+      <c r="E7" t="str" cm="1">
+        <f t="array" ref="E7:H10">(E6:H6&amp;D7:D10)</f>
         <v>この</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F7" t="str">
         <v>その</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <v>あの</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <v>どの</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="str">
-        <v>こんな</v>
-      </c>
-      <c r="F7" t="str">
-        <v>そんな</v>
-      </c>
-      <c r="G7" t="str">
-        <v>あんな</v>
-      </c>
-      <c r="H7" t="str">
-        <v>どんな</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="str">
-        <v>こちら</v>
+        <v>こんな</v>
       </c>
       <c r="F8" t="str">
-        <v>そちら</v>
+        <v>そんな</v>
       </c>
       <c r="G8" t="str">
-        <v>あちら</v>
+        <v>あんな</v>
       </c>
       <c r="H8" t="str">
-        <v>どちら</v>
+        <v>どんな</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <v>こちら</v>
+      </c>
+      <c r="F9" t="str">
+        <v>そちら</v>
+      </c>
+      <c r="G9" t="str">
+        <v>あちら</v>
+      </c>
+      <c r="H9" t="str">
+        <v>どちら</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <v>これ</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <v>それ</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <v>あれ</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <v>どれ</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2200,131 +2208,129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B317EDDC-9935-4EDB-A5E1-563B8CF8E652}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32.4" x14ac:dyDescent="0.8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="str">
-        <f t="array" ref="E6:H9">E5:H5&amp;D6:D9</f>
+      <c r="E7" t="str">
+        <f t="array" ref="E7:H10">E6:H6&amp;D7:D10</f>
         <v>この</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F7" t="str">
         <v>その</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <v>あの</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <v>どの</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="str">
-        <v>こんな</v>
-      </c>
-      <c r="F7" t="str">
-        <v>そんな</v>
-      </c>
-      <c r="G7" t="str">
-        <v>あんな</v>
-      </c>
-      <c r="H7" t="str">
-        <v>どんな</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="str">
-        <v>こちら</v>
+        <v>こんな</v>
       </c>
       <c r="F8" t="str">
-        <v>そちら</v>
+        <v>そんな</v>
       </c>
       <c r="G8" t="str">
-        <v>あちら</v>
+        <v>あんな</v>
       </c>
       <c r="H8" t="str">
-        <v>どちら</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="array" ref="K8">K7:N7&amp;J8:J11</f>
-        <v/>
+        <v>どんな</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <v>こちら</v>
+      </c>
+      <c r="F9" t="str">
+        <v>そちら</v>
+      </c>
+      <c r="G9" t="str">
+        <v>あちら</v>
+      </c>
+      <c r="H9" t="str">
+        <v>どちら</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="array" ref="K9">K8:N8&amp;J9:J12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <v>これ</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <v>それ</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <v>あれ</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <v>どれ</v>
       </c>
-      <c r="J9" t="str">
-        <f t="array" ref="J9">J8:M8&amp;I9:I12</f>
+      <c r="J10" t="str">
+        <f t="array" ref="J10">J9:M9&amp;I10:I13</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
